--- a/plots/maps/geo_stats/museumsall_in_country_by_size.xlsx
+++ b/plots/maps/geo_stats/museumsall_in_country_by_size.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>1719</v>
+        <v>1761</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
